--- a/books.xlsx
+++ b/books.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -322,16 +322,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J15"/>
+  <dimension ref="A2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col customWidth="1" max="2" min="2" width="179"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -346,42 +343,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3453 Pelham Rd.Suite 101GreenvilleSC United States of America</t>
+          <t>215, Galmachi-ro, Jungwon-guSeongnam-si Korea Republic of</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>864 991 6800</t>
+          <t>+82-31-9676-3544</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.bertrandt.com/en/</t>
+          <t>http://www.1drop.co.kr</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Westgate - 1001</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Dr. Gerrit Schmidt (President)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gerrit.schmidt@us.bertrandt.com</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Ronald Grosse (Director of Operations)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ronald.grosse@us.bertrandt.com</t>
+          <t>LVCC, South Plaza - 61211</t>
         </is>
       </c>
     </row>
@@ -398,7 +375,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10225BarnesCanyonRdA202SanDiegoCA United States of America</t>
+          <t>10225 Barnes Canyon Rd A202San DiegoCA United States of America</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -430,7 +407,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sternengasse14-16Cologne Germany</t>
+          <t>Sternengasse 14-16Cologne Germany</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -457,12 +434,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1VALET is a residential smart building platform that connects residents, property managers and their buildings like never before. 1VALET employs smart IoT devices and powerful automation to tie together vital building systems, making management more efficient while improving resident experience.\r\n\r\nCES will mark the launch of the 1VALET Entry Console - the smartest residential enterphone on the market.\r\n\r\n1VALET is seeking d</t>
+          <t>1VALET is a residential smart building platform that connects residents, property managers and their buildings like never before. 1VALET employs smart IoT devices and powerful automation to tie together vital building systems, making management more efficient while improving resident experience.CES will mark the launch of the 1VALET Entry Console - the smartest residential enterphone on the market.1VALET is seeking d</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>290BoulevardSt-JosephGatineauQC Canada</t>
+          <t>290 Boulevard St-JosephGatineauQC Canada</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -478,6 +455,56 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Sands, Halls A-D - 42125</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Rick Hardy-Cheam (VP, Sales &amp; Marketing) rick@1valet.com 1-613-355-4338</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (P)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Brandon Vaters (VP, Operations)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> bvaters@1valet.com</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Hugo Moreira (Media Inquiry - Content) hmoreira@1valet.com 1-613-858-3687</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (P)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Jason Burke (CFO)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jason.burke@positiveventuregroup.com</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Hanna Haddad (Head of Engineering)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> hhaddad@1valet.com</t>
         </is>
       </c>
     </row>
@@ -494,7 +521,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Unit301,InternationalPlaza20SheungYuetRd.HongKong China</t>
+          <t>Unit 301, International Plaza20 Sheung Yuet Rd.Hong Kong China</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -502,6 +529,7 @@
           <t>852 2305 3877</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>Sands, Halls A-D - 42152</t>
@@ -521,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Weesperstraat61-105Amsterdam Netherlands</t>
+          <t>Weesperstraat 61-105Amsterdam Netherlands</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -548,12 +576,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24VS is an IT start-up company based in 2019 as a reaction to market needs for Quality Control Vision System in automotive factory – Hyundai Transys and Hyunda Mobis. \r\n- 24vs is for quality control inspectors who must monitor their on-demand production line 24/7\r\n- 24vs is a quality control station which uses deep-learning to visually find defects \r\n- unlike Cognex, Keyence and National Instruments, 24vs can detect configuration errors, check multiple problems areas in one model and guarantee 99.9% accuracy</t>
+          <t>24VS is an IT start-up company based in 2019 as a reaction to market needs for Quality Control Vision System in automotive factory – Hyundai Transys and Hyunda Mobis. - 24vs is for quality control inspectors who must monitor their on-demand production line 24/7- 24vs is a quality control station which uses deep-learning to visually find defects - unlike Cognex, Keyence and National Instruments, 24vs can detect configuration errors, check multiple problems areas in one model and guarantee 99.9% accuracy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Riegrova832Frydek-Mistek Czech Republic</t>
+          <t>Riegrova 832Frydek-Mistek Czech Republic</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -569,6 +597,16 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>Sands, Hall G - 52960</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Andrea Cvickova (Strategic partnership) a.cvickova@24vs.io +420773155656</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (P)</t>
         </is>
       </c>
     </row>
@@ -585,7 +623,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Transformatorweg78Amsterdam Netherlands</t>
+          <t>Transformatorweg 78Amsterdam Netherlands</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -610,9 +648,10 @@
           <t>24Notion</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16865BoonesFerryRoadSte#203LakeOswegoOR United States of America</t>
+          <t>16865 Boones Ferry RoadSte #203Lake OswegoOR United States of America</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -620,6 +659,8 @@
           <t>(503) 896-2442</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -629,12 +670,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2J Antennas worldwide leader and manufacturer of antenna solutions for the IoT and M2M markets among others. Design and manufacturing resources under the same roof with made in Europe quality, TS16949 factory. OTA testing chamber in San Diego office.\r\n\r\n</t>
+          <t>2J Antennas worldwide leader and manufacturer of antenna solutions for the IoT and M2M markets among others. Design and manufacturing resources under the same roof with made in Europe quality, TS16949 factory. OTA testing chamber in San Diego office.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5744PacificCenterBlvdSuite311SanDiegoCA United States of America</t>
+          <t>5744 Pacific Center BlvdSuite 311San DiegoCA United States of America</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -661,14 +702,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>360Compliance laboartories provides turn key Testing &amp; Certification services for EMC, Wireless, Product safety. Sustainability and Type Approvals in more than 196 countries.\r\nWith test sites in USA Virginia, Spain Malaga, Munich Germany, Tel Aviv Israel, Taipei Taiwan, Shanghai China, Seoul S.\r\nKorea, Tokyo Japan and Malburn Australia and with more than 100 local agencies worldwide, 360Compliance provides the most comprehansive regulatory testing &amp; certification services for all regulatory requirements relates to an electrical product.</t>
+          <t>360Compliance laboartories provides turn key Testing &amp; Certification services for EMC, Wireless, Product safety. Sustainability and Type Approvals in more than 196 countries.With test sites in USA Virginia, Spain Malaga, Munich Germany, Tel Aviv Israel, Taipei Taiwan, Shanghai China, Seoul S.Korea, Tokyo Japan and Malburn Australia and with more than 100 local agencies worldwide, 360Compliance provides the most comprehansive regulatory testing &amp; certification services for all regulatory requirements relates to an electrical product.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hamelacah14Giv'atAdaBinyamina Israel</t>
-        </is>
-      </c>
+          <t>Hamelacah 14Giv'at AdaBinyamina Israel</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>http://www.360compliance.co/</t>
@@ -693,7 +735,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11201CedarAveClevelandOH United States of America</t>
+          <t>11201 Cedar AveClevelandOH United States of America</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -720,12 +762,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Whether it be future home automation, checkout-free grocery shopping or even recognizing emergencies and dangers in a public safety scenario. However, most of the available systems are too intricate or expensive to be applicable at the same time. For example, a camera-based fall detection for elderly people in a home safety application required a multiple camera setup connected by complex infrastructure for one room alone.\r\n3dvisionlabs GmbH develops a novel camera technology that, in combination with AI, extends possibilities of digitalization.</t>
+          <t>Whether it be future home automation, checkout-free grocery shopping or even recognizing emergencies and dangers in a public safety scenario. However, most of the available systems are too intricate or expensive to be applicable at the same time. For example, a camera-based fall detection for elderly people in a home safety application required a multiple camera setup connected by complex infrastructure for one room alone.3dvisionlabs GmbH develops a novel camera technology that, in combination with AI, extends possibilities of digitalization.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Technologie-Campus1Chemnitz Germany</t>
+          <t>Technologie-Campus 1Chemnitz Germany</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -757,7 +799,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7F.,ComplexforResearchExcellence,No.18,Siyuanst.,ZhongzhengDist.,TaipeiCity Taiwan China</t>
+          <t>7F., Complex for Research Excellence, No. 18, Siyuan st.,Zhongzheng Dist.,Taipei City Taiwan China</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -773,6 +815,372 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>Sands, Hall G - 51441</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3E</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3E have been researching and developing iris data analysis for more than 10 years, and since its establishment in 2015, we have steadily researched and developed the health status of each part of the body through the iris.We developed 3E’s own ‘iris analysis data-based toxin measurement solution’By participating in CES 2020, the 3rd largest international exhibition, we want to advance into the United States and become a global company.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Pangyo Creative Economics Valley,Information Protection Cluster 4F No.463Sujeong-gu South Korea</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>82-10-8910-9449</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>http://www.3eiris.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sands, Hall G - 52836</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3M</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3M Medical Materials and Technologies helps health care manufacturers design and build more reliable, innovative and feature-rich medical devices. Customers leverage 3M technical expertise to select materials and technologies that integrate together for their break-through medical industry, device innovations designed for improving or enhancing lives.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3M Corporate Headquarters3M Center, Bldg 275-5W-05St. PaulMN United States of America</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>(888) 3M-HELPS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://www.3M.com/MedTech</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sands, Halls A-D - 43731</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>42Maru Inc</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>We have built a QA (Question Answering) system that semantically understands a question and finds a single answer from a large set of Database. We can automatically answer questions posed by human in a natural language format. We have co-ranked #1 with Google in the MRC (Machine Reading Comprehension) Competition (by Stanford University, as of Nov. 2018). Our patented deep learning QA system is the first/only commercial version in Korea. Applicable such industries as 1) KMS, 2) Chatbot QA and 3) Knowledge QA. You no longer have to waste more than 20% of your time searching for information.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6th floor, 1925, Nambusunhwan-ro,Gwanak-guSeoul South Korea</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>(202) 857-7919 x111</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://www.42maru.com</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sands, Hall G - 53322</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4AMPS Technologies</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4AMPS is the world's first all-in-one outlet cover plate with built in cord, usb ports, Wifi, IoT, Bluetooth and power storage. Never need a cord or adaptor again.Engineered, designed and manufactured in Canada and the United States.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>580 5th AvenueNew YorkNY United States of America</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>(844) 464-2677</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.4AMPS.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sands, Halls A-D - 40835</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sunny Bhasin (CEO) hello@4AMPS.com 1-844-464-2677</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (P)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Sammy Eberstark (Director) sammy@4AMPS.com 1-844-464-2677</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (P)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Dheeraj Chadha (Director) raj@4AMPS.com 1-844-464-2677</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (P)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4DAGE Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> founded in 2014, it has been dedicated to the studies and applications of artificial intelligence in the field of three-dimensional digital reconstruction. With the vision of “digital everything”, it is bringing digital technologies to the everyday life of common people.4DAGE is one of the first 3D digital reconstruction centers in China, and one of the pioneer domestic companies to provide 3D display technologies. 4DAGE provides products and solutions not only for major museums and expositions at home and abroad, namely the Palace Museum, Nanchang Han Dynasty Haihunhou Historic Site Museum.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Building 11, Tech Bay, Harbour Road, TangjiawanHi-tech Zone, ZhuhaiZhuhai China</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>867566996790</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://www.4dage.com</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LVCC, South Hall 1 - 21653</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>YE</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOYI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4IND Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4INDInc. is a solution specialist that has gathered experts to become a leader in the fourth industry (an industry that uses soft power to make factories and products intelligent).- AI Video Su</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>320, Mobile Technology Center, 350-27, Gumi-daeroGumi Korea Republic of</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>+82-54-456-3401</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http://www.4ind.co.kr/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LVCC, South Plaza - 61525</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4moms</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4moms has transformed the baby gear industry by leveraging technology and functional design to create dramatically better products, like the 4moms mamaRoo® infant seat that replicates the bouncing and swaying motions parents make when soothing their babies; the 4moms breeze® playard that opens or closes in one simple step; and the 4moms high chair, which uses magnetic technology to make mealtime easier. The company, founded in 2005 and based in Pittsburgh, Penn., currently sells its products at buy buy BABY, Amazon, Best Buy, Target, walmart.com, select specialty retailers, and at 4moms.com.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>912 Ft. Duquesne BlvdPittsburghPA United States of America</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4124348380</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>http://www.4moms.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sands, Halls A-D - 44758</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4Paradigm</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4Paradigm is a global leading provider of enterprise-class Artificial Intelligence (AI) technologies and services, whose core business is to leverage machine learning to help enterprises improve efficiency, minimize risks, and realize greater business value. In February 2019, the company was named to the 2019 CB Insights “AI 100”, a global list of the most promising 100 AI startups, reaching a unicorn valuation over US$1 billion along with 10 other AI companies.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Room 303, Building C, Yiquanhui Offices, No.35 Shangdidong Road, Haidian District, Beijing, ChinaBeijing China</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>86-010-82780800</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.4paradigm.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LVCC, South Hall 2 - 25622</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Zhao Jiaqi (Marketing Manager) zhapjiaqi@4paradigm.com 13021289422</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (P)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4S Mapper</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>#404, 21, Baekbeom-ro 31-gil, Seoul Startup HubMapo-guSeoul South Korea</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>(202) 857-7919 x111</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>http://www.4smapper.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sands, Hall G - 53322</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>6G Cool Ltd</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>6G COOL presents revolutionary portable air purifier device with patented PECO-technology. Device creates clean air breathing zone with style and protects user wherever they go. 6G COOL is battery operated and available in different styles and wearable designs. A new success story from industry expert Mr. Vesa Makipaa who has +30 years experience of Indoor Air Quality focused companies.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Vellamonkatu 30 B,2nd FloorHelsinki Finland</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>+358503366544</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>http://6gcool.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sands, Hall G - 52968</t>
         </is>
       </c>
     </row>
